--- a/CashFlow/LLY_cashflow.xlsx
+++ b/CashFlow/LLY_cashflow.xlsx
@@ -376,10 +376,8 @@
           <t>Depreciation &amp; Amortization</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>1400300000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1324000000.0</v>
@@ -505,10 +503,8 @@
           <t>Non Cash Items (Other)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>-236400000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>-270600000.0</v>
@@ -1603,10 +1599,8 @@
           <t>Change in other assets and liabilities</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>848200000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>-457100000.0</v>
@@ -1732,10 +1726,8 @@
           <t>Operating Cash Flow</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>7814400000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>6499000000.0</v>
@@ -1861,10 +1853,8 @@
           <t>Capital expenditures</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>-1429900000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>-1387900000.0</v>
@@ -2165,10 +2155,8 @@
           <t>Net Aquisitions</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>-2445700000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>-8261200000.0</v>
@@ -2316,10 +2304,8 @@
           <t>Short Term Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>66100000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>118300000.0</v>
@@ -2445,10 +2431,8 @@
           <t>Long-Term Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>420200000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>398400000.0</v>
@@ -2574,10 +2558,8 @@
           <t>Other investing activities</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>-208700000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-138000000.0</v>
@@ -2703,10 +2685,8 @@
           <t>Investing cash flow</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>-2481500000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>-2259000000.0</v>
@@ -2832,10 +2812,8 @@
           <t>Repayment/Issuance of Debt (Net)</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>-1184700000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>291000000.0</v>
@@ -3110,10 +3088,8 @@
           <t>Dividends Paid (Total)</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>-2790800000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>-2687000000.0</v>
@@ -3239,10 +3215,8 @@
           <t>Other financial activities</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>-586900000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>-377000000.0</v>
@@ -3384,10 +3358,8 @@
           <t>Financing cash flow</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>-4302400000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>-3137000000.0</v>
@@ -3513,10 +3485,8 @@
           <t>Exchange Rate Adjustment</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>272500000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>216000000.0</v>
@@ -3642,10 +3612,8 @@
           <t>Change in Cash</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>1303300000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1319000000.0</v>
@@ -3771,10 +3739,8 @@
           <t>Beginning Cash</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>3657100000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2337500000.0</v>
@@ -3900,10 +3866,8 @@
           <t>Ending Cash</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>4960500000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3657100000.0</v>
@@ -4029,10 +3993,8 @@
           <t>Stock Based Compensation</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>321800000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>308100000.0</v>
@@ -4159,7 +4121,7 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>-2015800000.0</v>
+        <v>-2790600000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>-2687100000.0</v>
@@ -4285,10 +4247,8 @@
           <t>Assets Liabilities Change (Total)</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>557900100.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>-747399900.0</v>
@@ -4414,10 +4374,8 @@
           <t>Investments Change (Net)</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>486300000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>516700000.0</v>
